--- a/Result/Orbit/Manufacturing/CAN.xlsx
+++ b/Result/Orbit/Manufacturing/CAN.xlsx
@@ -463,7 +463,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>16.0447460841663</v>
+        <v>16.11201885083432</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>16.25312719621408</v>
+        <v>16.6242451906346</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>17.07630687844336</v>
+        <v>16.43633236781605</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>17.02443712519088</v>
+        <v>17.29560828666536</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>16.03874062392151</v>
+        <v>17.19211932303729</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>15.70905941004635</v>
+        <v>15.74602786902146</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>14.66325348159223</v>
+        <v>15.4050855363881</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>14.29554309123741</v>
+        <v>14.27381694589734</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>13.37476161969874</v>
+        <v>13.9259037766134</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>12.58334034935793</v>
+        <v>12.91074513388082</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>11.90294486771548</v>
+        <v>12.06554761258514</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>10.6115120938541</v>
+        <v>11.4302453368989</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>10.06119641018396</v>
+        <v>10.07100255891333</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>10.02715411219138</v>
+        <v>9.525156799018639</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>9.95539617251473</v>
+        <v>9.622971319392931</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>10.02016741416535</v>
+        <v>9.759718088022973</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>9.588492358255939</v>
+        <v>10.00831810228124</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>9.426150823826994</v>
+        <v>9.508994874703145</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>9.975422544339398</v>
+        <v>9.201138985223919</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>9.928004135207868</v>
+        <v>10.12615260015849</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -704,50 +704,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>9.928004135449934</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>10.17712992418662</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.158796480969903</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.88951107126135</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>9.928004135449934</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>10.08876489619458</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.68627724062571</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.49826326966787</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>9.928004135449934</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>10.13111683760043</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.103982634477497</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.3646886752067</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>9.928004135449934</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>10.14787499594761</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.471246420756935</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.18288137063714</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>9.928004135449934</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>10.25570841959133</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.346405418134279</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.3202415291142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -795,7 +815,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>16.0447460841663</v>
+        <v>15.91219237928568</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -805,7 +825,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>16.25312719621408</v>
+        <v>16.5085771906186</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -815,7 +835,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>17.07630687844336</v>
+        <v>16.33332388573807</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -825,7 +845,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>17.02443712519088</v>
+        <v>17.3737967315001</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -835,7 +855,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>16.03874062392151</v>
+        <v>17.29753460776787</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -845,7 +865,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>15.70905941004635</v>
+        <v>15.91107397381808</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -855,7 +875,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>14.66325348159223</v>
+        <v>15.32772786096888</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -865,7 +885,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>14.29554309123741</v>
+        <v>14.33751042580921</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>13.37476161969874</v>
+        <v>13.87758459671688</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>12.58334034935793</v>
+        <v>13.13342996686906</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>11.90294486771548</v>
+        <v>12.30222767316632</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>10.6115120938541</v>
+        <v>11.52374327128329</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>10.06119641018396</v>
+        <v>10.15053883052161</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>10.02715411219138</v>
+        <v>9.465887046265561</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>9.95539617251473</v>
+        <v>9.713693904715425</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>10.02016741416535</v>
+        <v>9.885263506235562</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>9.588492358255939</v>
+        <v>10.06647147068668</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>9.426150823826994</v>
+        <v>9.614582460489443</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>9.975422544339398</v>
+        <v>9.232606600024852</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>9.928004135207868</v>
+        <v>9.893326352062623</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2017</v>
       </c>
       <c r="B22" t="n">
-        <v>9.68457578828024</v>
+        <v>9.909902953867356</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2018</v>
       </c>
       <c r="B23" t="n">
-        <v>9.866071588318858</v>
+        <v>9.67693883056879</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="n">
-        <v>7.718852878180762</v>
+        <v>9.814576347964131</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="n">
-        <v>7.308124220877686</v>
+        <v>7.282427611852597</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2021</v>
       </c>
       <c r="B26" t="n">
-        <v>6.897395563574609</v>
+        <v>6.68292127582536</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1086,50 +1106,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>6.897395566293373</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>6.566920508902376</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.557539769349007</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.412284624459084</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>6.897395566293373</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>6.367931179736008</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.407226606245271</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.855944290442699</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>6.897395566293373</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>6.080870287933401</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.377742620569026</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.330705827108185</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>6.897395566293373</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>5.977556086729314</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.461513156533793</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.913681469927424</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>6.897395566293373</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>5.785580007038213</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.767750729241321</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.509670381387076</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
